--- a/Bern_2022/Daten/Bern_Wahlkreise.xlsx
+++ b/Bern_2022/Daten/Bern_Wahlkreise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Bern_2022/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{723B8F38-D4F0-4CDF-97E8-1F87EADD0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07140E40-4901-4CF3-A29C-CB240C62806D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="14_{723B8F38-D4F0-4CDF-97E8-1F87EADD0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE39BC9-59B7-4E18-80BF-61DC1CB0435D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9D1531A8-4B02-4287-91A7-F5C33625BBA9}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9D1531A8-4B02-4287-91A7-F5C33625BBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="11">
   <si>
     <t>Gemeinde_Nr</t>
   </si>
@@ -80,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,8 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -416,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9C349-EF23-403C-8CC0-8398A3C01700}">
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,168 +1463,168 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>345</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>960</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="A130" s="2">
+        <v>329</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>401</v>
-      </c>
-      <c r="B131" t="s">
-        <v>4</v>
+      <c r="A131" s="2">
+        <v>331</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>951</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4</v>
+      <c r="A132" s="2">
+        <v>332</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>402</v>
-      </c>
-      <c r="B133" t="s">
-        <v>4</v>
+      <c r="A133" s="2">
+        <v>333</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>404</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4</v>
+      <c r="A134" s="2">
+        <v>335</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>533</v>
-      </c>
-      <c r="B135" t="s">
-        <v>4</v>
+      <c r="A135" s="2">
+        <v>336</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>952</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4</v>
+      <c r="A136" s="2">
+        <v>337</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>901</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>405</v>
-      </c>
-      <c r="B138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>406</v>
-      </c>
-      <c r="B139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>407</v>
-      </c>
-      <c r="B140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>409</v>
-      </c>
-      <c r="B141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>410</v>
-      </c>
-      <c r="B142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>411</v>
-      </c>
-      <c r="B143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>412</v>
-      </c>
-      <c r="B144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>413</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4</v>
+      <c r="A137" s="2">
+        <v>389</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>408</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>954</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>976</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>977</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>979</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>980</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>981</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>982</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>414</v>
-      </c>
-      <c r="B146" t="s">
-        <v>4</v>
+      <c r="A146" s="2">
+        <v>983</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>902</v>
-      </c>
-      <c r="B147" t="s">
-        <v>4</v>
+      <c r="A147" s="2">
+        <v>985</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>903</v>
+        <v>960</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
@@ -1622,7 +1632,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
@@ -1630,7 +1640,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
@@ -1638,7 +1648,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -1646,7 +1656,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
@@ -1654,7 +1664,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>904</v>
+        <v>952</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
@@ -1662,7 +1672,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
@@ -1670,7 +1680,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -1678,7 +1688,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>956</v>
+        <v>406</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
@@ -1686,7 +1696,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>906</v>
+        <v>407</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
@@ -1694,7 +1704,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>907</v>
+        <v>409</v>
       </c>
       <c r="B159" t="s">
         <v>4</v>
@@ -1702,7 +1712,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>957</v>
+        <v>410</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -1710,7 +1720,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>958</v>
+        <v>411</v>
       </c>
       <c r="B161" t="s">
         <v>4</v>
@@ -1718,7 +1728,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>908</v>
+        <v>412</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
@@ -1726,7 +1736,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>909</v>
+        <v>413</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
@@ -1734,7 +1744,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>552</v>
+        <v>414</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
@@ -1742,7 +1752,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>554</v>
+        <v>902</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
@@ -1750,7 +1760,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>423</v>
+        <v>903</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
@@ -1758,7 +1768,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
@@ -1766,7 +1776,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>556</v>
+        <v>955</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -1774,159 +1784,159 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>630</v>
+        <v>416</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>403</v>
+        <v>904</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>536</v>
+        <v>905</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>662</v>
+        <v>420</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>538</v>
+        <v>956</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>663</v>
+        <v>906</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>664</v>
+        <v>907</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>665</v>
+        <v>957</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>541</v>
+        <v>958</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>362</v>
+        <v>908</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>540</v>
+        <v>909</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>354</v>
+        <v>552</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>666</v>
+        <v>554</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>667</v>
+        <v>423</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>543</v>
+        <v>424</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>307</v>
-      </c>
-      <c r="B186" t="s">
-        <v>5</v>
+      <c r="A186" s="1">
+        <v>422</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>356</v>
+        <v>630</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -1934,7 +1944,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>668</v>
+        <v>352</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -1942,7 +1952,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>546</v>
+        <v>353</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -1950,7 +1960,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>669</v>
+        <v>403</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -1958,7 +1968,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>670</v>
+        <v>536</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -1966,7 +1976,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>363</v>
+        <v>662</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -1974,7 +1984,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -1982,7 +1992,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>551</v>
+        <v>663</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -1990,7 +2000,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>359</v>
+        <v>664</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -1998,7 +2008,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>553</v>
+        <v>665</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -2006,7 +2016,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>671</v>
+        <v>541</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -2014,7 +2024,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -2022,7 +2032,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>627</v>
+        <v>540</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -2030,7 +2040,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -2038,7 +2048,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>557</v>
+        <v>666</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -2046,167 +2056,167 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>351</v>
+        <v>667</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>861</v>
+        <v>307</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>603</v>
+        <v>544</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>605</v>
+        <v>356</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>866</v>
+        <v>669</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>608</v>
+        <v>670</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>852</v>
+        <v>363</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>610</v>
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>609</v>
+        <v>551</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>868</v>
+        <v>359</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>869</v>
+        <v>553</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>870</v>
+        <v>671</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>611</v>
+        <v>360</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>872</v>
+        <v>627</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>873</v>
+        <v>361</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -2214,7 +2224,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>614</v>
+        <v>861</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -2222,7 +2232,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>874</v>
+        <v>603</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
@@ -2230,7 +2240,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -2238,7 +2248,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>876</v>
+        <v>606</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -2246,7 +2256,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -2254,7 +2264,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>617</v>
+        <v>866</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -2262,7 +2272,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>357</v>
+        <v>608</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -2270,7 +2280,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>619</v>
+        <v>852</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -2278,7 +2288,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -2286,7 +2296,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -2294,7 +2304,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>622</v>
+        <v>868</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -2302,7 +2312,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -2310,7 +2320,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>623</v>
+        <v>870</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -2318,7 +2328,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>880</v>
+        <v>611</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -2326,7 +2336,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -2334,7 +2344,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -2342,7 +2352,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>855</v>
+        <v>612</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -2350,7 +2360,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>884</v>
+        <v>355</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -2358,7 +2368,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>888</v>
+        <v>613</v>
       </c>
       <c r="B242" t="s">
         <v>7</v>
@@ -2366,7 +2376,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -2374,7 +2384,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>632</v>
+        <v>874</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
@@ -2382,7 +2392,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
@@ -2390,183 +2400,183 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>921</v>
+        <v>876</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>922</v>
+        <v>616</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>923</v>
+        <v>617</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>863</v>
+        <v>357</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>924</v>
+        <v>619</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>925</v>
+        <v>629</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>948</v>
+        <v>620</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>867</v>
+        <v>622</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>927</v>
+        <v>879</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>928</v>
+        <v>623</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>929</v>
+        <v>880</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>932</v>
+        <v>853</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>934</v>
+        <v>855</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>935</v>
+        <v>884</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>936</v>
+        <v>888</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>767</v>
+        <v>626</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>937</v>
+        <v>632</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>883</v>
-      </c>
-      <c r="B264" t="s">
-        <v>8</v>
+      <c r="A264" s="1">
+        <v>877</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>938</v>
-      </c>
-      <c r="B265" t="s">
-        <v>8</v>
+      <c r="A265" s="1">
+        <v>889</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>939</v>
-      </c>
-      <c r="B266" t="s">
-        <v>8</v>
+      <c r="A266" s="1">
+        <v>535</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>770</v>
+        <v>628</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="B268" t="s">
         <v>8</v>
@@ -2574,7 +2584,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="B269" t="s">
         <v>8</v>
@@ -2582,7 +2592,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="B270" t="s">
         <v>8</v>
@@ -2590,7 +2600,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>943</v>
+        <v>863</v>
       </c>
       <c r="B271" t="s">
         <v>8</v>
@@ -2598,7 +2608,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>944</v>
+        <v>924</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
@@ -2606,7 +2616,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
@@ -2614,7 +2624,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>885</v>
+        <v>948</v>
       </c>
       <c r="B274" t="s">
         <v>8</v>
@@ -2622,7 +2632,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>946</v>
+        <v>867</v>
       </c>
       <c r="B275" t="s">
         <v>8</v>
@@ -2630,7 +2640,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>886</v>
+        <v>927</v>
       </c>
       <c r="B276" t="s">
         <v>8</v>
@@ -2638,7 +2648,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="B277" t="s">
         <v>8</v>
@@ -2646,183 +2656,183 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>791</v>
+        <v>929</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>841</v>
+        <v>931</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>842</v>
+        <v>932</v>
       </c>
       <c r="B280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>792</v>
+        <v>934</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>843</v>
+        <v>935</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>793</v>
+        <v>936</v>
       </c>
       <c r="B283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>794</v>
+        <v>767</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>561</v>
+        <v>937</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>562</v>
+        <v>883</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>762</v>
+        <v>938</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>761</v>
+        <v>939</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>563</v>
+        <v>940</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>564</v>
+        <v>941</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>565</v>
+        <v>942</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>566</v>
+        <v>943</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>766</v>
+        <v>944</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>567</v>
+        <v>945</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>768</v>
+        <v>885</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>769</v>
+        <v>946</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>571</v>
+        <v>886</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>573</v>
+        <v>947</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>574</v>
+        <v>791</v>
       </c>
       <c r="B300" t="s">
         <v>9</v>
@@ -2830,7 +2840,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>572</v>
+        <v>841</v>
       </c>
       <c r="B301" t="s">
         <v>9</v>
@@ -2838,7 +2848,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>575</v>
+        <v>842</v>
       </c>
       <c r="B302" t="s">
         <v>9</v>
@@ -2846,7 +2856,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>576</v>
+        <v>792</v>
       </c>
       <c r="B303" t="s">
         <v>9</v>
@@ -2854,7 +2864,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>577</v>
+        <v>843</v>
       </c>
       <c r="B304" t="s">
         <v>9</v>
@@ -2862,7 +2872,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="B305" t="s">
         <v>9</v>
@@ -2870,7 +2880,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>578</v>
+        <v>794</v>
       </c>
       <c r="B306" t="s">
         <v>9</v>
@@ -2878,7 +2888,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B307" t="s">
         <v>9</v>
@@ -2886,7 +2896,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>783</v>
+        <v>562</v>
       </c>
       <c r="B308" t="s">
         <v>9</v>
@@ -2894,7 +2904,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>580</v>
+        <v>762</v>
       </c>
       <c r="B309" t="s">
         <v>9</v>
@@ -2902,7 +2912,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="B310" t="s">
         <v>9</v>
@@ -2910,7 +2920,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>581</v>
+        <v>763</v>
       </c>
       <c r="B311" t="s">
         <v>9</v>
@@ -2918,7 +2928,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="B312" t="s">
         <v>9</v>
@@ -2926,7 +2936,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="B313" t="s">
         <v>9</v>
@@ -2934,7 +2944,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B314" t="s">
         <v>9</v>
@@ -2942,7 +2952,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B315" t="s">
         <v>9</v>
@@ -2950,7 +2960,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>587</v>
+        <v>766</v>
       </c>
       <c r="B316" t="s">
         <v>9</v>
@@ -2958,7 +2968,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>785</v>
+        <v>567</v>
       </c>
       <c r="B317" t="s">
         <v>9</v>
@@ -2966,7 +2976,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>588</v>
+        <v>768</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
@@ -2974,7 +2984,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>589</v>
+        <v>769</v>
       </c>
       <c r="B319" t="s">
         <v>9</v>
@@ -2982,7 +2992,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B320" t="s">
         <v>9</v>
@@ -2990,7 +3000,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B321" t="s">
         <v>9</v>
@@ -2998,7 +3008,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>786</v>
+        <v>574</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
@@ -3006,7 +3016,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="B323" t="s">
         <v>9</v>
@@ -3014,7 +3024,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="B324" t="s">
         <v>9</v>
@@ -3022,9 +3032,185 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
+        <v>576</v>
+      </c>
+      <c r="B325" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>577</v>
+      </c>
+      <c r="B326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>782</v>
+      </c>
+      <c r="B327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>578</v>
+      </c>
+      <c r="B328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>579</v>
+      </c>
+      <c r="B329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>783</v>
+      </c>
+      <c r="B330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>580</v>
+      </c>
+      <c r="B331" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>784</v>
+      </c>
+      <c r="B332" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>581</v>
+      </c>
+      <c r="B333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>582</v>
+      </c>
+      <c r="B334" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>584</v>
+      </c>
+      <c r="B335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>585</v>
+      </c>
+      <c r="B336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>586</v>
+      </c>
+      <c r="B337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>587</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>785</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>588</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>589</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>590</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>591</v>
+      </c>
+      <c r="B343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>786</v>
+      </c>
+      <c r="B344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>592</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>593</v>
+      </c>
+      <c r="B346" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
         <v>594</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B347" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3038,7 +3224,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40863DE7-DCEF-4A67-9E64-8734AE1545FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B66BA24-8C29-4E58-AD58-DFA7C37353B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="urn:schemas-microsoft-com.SixFinancial.FinXL"/>
   </ds:schemaRefs>

--- a/Bern_2022/Daten/Bern_Wahlkreise.xlsx
+++ b/Bern_2022/Daten/Bern_Wahlkreise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Bern_2022/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="14_{723B8F38-D4F0-4CDF-97E8-1F87EADD0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE39BC9-59B7-4E18-80BF-61DC1CB0435D}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="14_{723B8F38-D4F0-4CDF-97E8-1F87EADD0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{864D4530-55E1-4AD4-BB1B-2BED54D50476}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9D1531A8-4B02-4287-91A7-F5C33625BBA9}"/>
   </bookViews>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9C349-EF23-403C-8CC0-8398A3C01700}">
   <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2563,7 +2563,7 @@
         <v>535</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B66BA24-8C29-4E58-AD58-DFA7C37353B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{403A6E17-5CC1-4DD6-BA4F-AA5BDB0BF0AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="urn:schemas-microsoft-com.SixFinancial.FinXL"/>
   </ds:schemaRefs>

--- a/Bern_2022/Daten/Bern_Wahlkreise.xlsx
+++ b/Bern_2022/Daten/Bern_Wahlkreise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Bern_2022/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="14_{723B8F38-D4F0-4CDF-97E8-1F87EADD0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{864D4530-55E1-4AD4-BB1B-2BED54D50476}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="14_{723B8F38-D4F0-4CDF-97E8-1F87EADD0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CF63D3B-3B97-48DC-8C71-8B8C1EC7D806}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9D1531A8-4B02-4287-91A7-F5C33625BBA9}"/>
   </bookViews>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9C349-EF23-403C-8CC0-8398A3C01700}">
   <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,327 +448,327 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>681</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>683</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>687</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>432</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>433</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>690</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>434</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>691</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>692</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>694</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>723</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>696</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>700</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>724</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>701</v>
+        <v>387</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>716</v>
+        <v>388</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>726</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
+      <c r="A22" s="2">
+        <v>389</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>715</v>
+        <v>391</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>703</v>
+        <v>392</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>704</v>
+        <v>394</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>706</v>
+        <v>492</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>707</v>
+        <v>495</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>708</v>
+        <v>496</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>709</v>
+        <v>497</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>711</v>
+        <v>500</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>713</v>
+        <v>501</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>448</v>
+        <v>732</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>371</v>
+        <v>735</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>372</v>
+        <v>737</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>387</v>
+        <v>739</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>390</v>
+        <v>741</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>392</v>
+        <v>745</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>301</v>
+        <v>754</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>381</v>
+        <v>755</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>302</v>
+        <v>756</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -944,1895 +944,1895 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>491</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>734</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>735</v>
+        <v>409</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>495</v>
+        <v>413</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>303</v>
+        <v>414</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>736</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>737</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>496</v>
+        <v>418</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>738</v>
+        <v>420</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>304</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>305</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
+      <c r="A81" s="1">
+        <v>422</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>306</v>
+        <v>424</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>741</v>
+        <v>552</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>391</v>
+        <v>556</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>309</v>
+        <v>901</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>310</v>
+        <v>902</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>393</v>
+        <v>903</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>311</v>
+        <v>904</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>312</v>
+        <v>905</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>499</v>
+        <v>906</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>749</v>
+        <v>907</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>500</v>
+        <v>908</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>501</v>
+        <v>909</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>751</v>
+        <v>951</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>502</v>
+        <v>952</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>754</v>
+        <v>955</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>394</v>
+        <v>956</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>755</v>
+        <v>957</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>321</v>
+        <v>958</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>971</v>
+        <v>431</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>322</v>
+        <v>432</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>972</v>
+        <v>434</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>973</v>
+        <v>435</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>324</v>
+        <v>437</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>953</v>
+        <v>441</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>975</v>
+        <v>442</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>326</v>
+        <v>443</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>987</v>
+        <v>446</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>988</v>
+        <v>450</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>342</v>
+        <v>681</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>989</v>
+        <v>683</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>344</v>
+        <v>687</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>990</v>
+        <v>690</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>991</v>
+        <v>691</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>959</v>
+        <v>692</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>992</v>
+        <v>694</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>993</v>
+        <v>696</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>995</v>
+        <v>700</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>996</v>
+        <v>701</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>345</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>3</v>
+      <c r="A129">
+        <v>703</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
-        <v>329</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>3</v>
+      <c r="A130">
+        <v>704</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>331</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>3</v>
+      <c r="A131">
+        <v>706</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
-        <v>332</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>3</v>
+      <c r="A132">
+        <v>707</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>333</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>3</v>
+      <c r="A133">
+        <v>708</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
-        <v>335</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>3</v>
+      <c r="A134">
+        <v>709</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
-        <v>336</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3</v>
+      <c r="A135">
+        <v>711</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
-        <v>337</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>3</v>
+      <c r="A136">
+        <v>713</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
-        <v>389</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>3</v>
+      <c r="A137">
+        <v>715</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
-        <v>408</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>3</v>
+      <c r="A138">
+        <v>716</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
-        <v>954</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>3</v>
+      <c r="A139">
+        <v>717</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
-        <v>976</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>3</v>
+      <c r="A140">
+        <v>723</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
-        <v>977</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>3</v>
+      <c r="A141">
+        <v>724</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
-        <v>979</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>3</v>
+      <c r="A142">
+        <v>726</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
-        <v>980</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>3</v>
+      <c r="A143">
+        <v>307</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
-        <v>981</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>3</v>
+      <c r="A144">
+        <v>352</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
-        <v>982</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>3</v>
+      <c r="A145">
+        <v>353</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
-        <v>983</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>3</v>
+      <c r="A146">
+        <v>354</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
-        <v>985</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>3</v>
+      <c r="A147">
+        <v>356</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>960</v>
+        <v>358</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>951</v>
+        <v>360</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>533</v>
+        <v>363</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>952</v>
+        <v>403</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>901</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
+      <c r="A155" s="1">
+        <v>535</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>405</v>
+        <v>536</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>407</v>
+        <v>540</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>409</v>
+        <v>541</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>411</v>
+        <v>544</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>412</v>
+        <v>546</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>413</v>
+        <v>551</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>414</v>
+        <v>553</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>902</v>
+        <v>557</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>903</v>
+        <v>627</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>415</v>
+        <v>630</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>955</v>
+        <v>662</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>416</v>
+        <v>663</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>418</v>
+        <v>664</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>421</v>
+        <v>665</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>904</v>
+        <v>666</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>905</v>
+        <v>667</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>420</v>
+        <v>668</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>956</v>
+        <v>669</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>906</v>
+        <v>670</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>907</v>
+        <v>671</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>957</v>
+        <v>355</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>958</v>
+        <v>357</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>908</v>
+        <v>602</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>909</v>
+        <v>603</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="B183" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>423</v>
+        <v>607</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>424</v>
+        <v>608</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>422</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>4</v>
+      <c r="A186">
+        <v>609</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>556</v>
+        <v>610</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>352</v>
+        <v>612</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>353</v>
+        <v>613</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>403</v>
+        <v>614</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>536</v>
+        <v>615</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>665</v>
+        <v>622</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>362</v>
+        <v>626</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>540</v>
+        <v>628</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>354</v>
+        <v>629</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>667</v>
+        <v>852</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>543</v>
+        <v>853</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>307</v>
+        <v>855</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>544</v>
+        <v>861</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>356</v>
+        <v>866</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>668</v>
+        <v>868</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>546</v>
+        <v>869</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>669</v>
+        <v>870</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>670</v>
+        <v>872</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>363</v>
+        <v>873</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>358</v>
+        <v>874</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>551</v>
+        <v>876</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>359</v>
-      </c>
-      <c r="B215" t="s">
-        <v>5</v>
+      <c r="A215" s="1">
+        <v>877</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>553</v>
+        <v>879</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>671</v>
+        <v>880</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>360</v>
+        <v>881</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>627</v>
+        <v>884</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>361</v>
+        <v>888</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221">
-        <v>557</v>
-      </c>
-      <c r="B221" t="s">
-        <v>5</v>
+      <c r="A221" s="1">
+        <v>889</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>602</v>
+        <v>322</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>861</v>
+        <v>323</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>603</v>
+        <v>324</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>605</v>
+        <v>325</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>606</v>
+        <v>326</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>607</v>
-      </c>
-      <c r="B228" t="s">
-        <v>7</v>
+      <c r="A228" s="2">
+        <v>329</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>866</v>
-      </c>
-      <c r="B229" t="s">
-        <v>7</v>
+      <c r="A229" s="2">
+        <v>331</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>608</v>
-      </c>
-      <c r="B230" t="s">
-        <v>7</v>
+      <c r="A230" s="2">
+        <v>332</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>852</v>
-      </c>
-      <c r="B231" t="s">
-        <v>7</v>
+      <c r="A231" s="2">
+        <v>333</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>610</v>
-      </c>
-      <c r="B232" t="s">
-        <v>7</v>
+      <c r="A232" s="2">
+        <v>335</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>609</v>
-      </c>
-      <c r="B233" t="s">
-        <v>7</v>
+      <c r="A233" s="2">
+        <v>336</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>868</v>
-      </c>
-      <c r="B234" t="s">
-        <v>7</v>
+      <c r="A234" s="2">
+        <v>337</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>869</v>
+        <v>338</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>870</v>
+        <v>339</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>611</v>
+        <v>340</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>872</v>
+        <v>341</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>873</v>
+        <v>342</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>612</v>
+        <v>344</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241">
-        <v>355</v>
-      </c>
-      <c r="B241" t="s">
-        <v>7</v>
+      <c r="A241" s="1">
+        <v>345</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242">
-        <v>613</v>
-      </c>
-      <c r="B242" t="s">
-        <v>7</v>
+      <c r="A242" s="2">
+        <v>408</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>614</v>
+        <v>953</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>874</v>
-      </c>
-      <c r="B244" t="s">
-        <v>7</v>
+      <c r="A244" s="2">
+        <v>954</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>615</v>
+        <v>959</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>876</v>
+        <v>960</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>616</v>
+        <v>971</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>617</v>
+        <v>972</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>357</v>
+        <v>973</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>619</v>
+        <v>975</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>629</v>
-      </c>
-      <c r="B251" t="s">
-        <v>7</v>
+      <c r="A251" s="2">
+        <v>976</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>620</v>
-      </c>
-      <c r="B252" t="s">
-        <v>7</v>
+      <c r="A252" s="2">
+        <v>977</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>622</v>
-      </c>
-      <c r="B253" t="s">
-        <v>7</v>
+      <c r="A253" s="2">
+        <v>979</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>879</v>
-      </c>
-      <c r="B254" t="s">
-        <v>7</v>
+      <c r="A254" s="2">
+        <v>980</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>623</v>
-      </c>
-      <c r="B255" t="s">
-        <v>7</v>
+      <c r="A255" s="2">
+        <v>981</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>880</v>
-      </c>
-      <c r="B256" t="s">
-        <v>7</v>
+      <c r="A256" s="2">
+        <v>982</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>881</v>
-      </c>
-      <c r="B257" t="s">
-        <v>7</v>
+      <c r="A257" s="2">
+        <v>983</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258">
-        <v>853</v>
-      </c>
-      <c r="B258" t="s">
-        <v>7</v>
+      <c r="A258" s="2">
+        <v>985</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>855</v>
+        <v>987</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>884</v>
+        <v>988</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>888</v>
+        <v>989</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>626</v>
+        <v>990</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>632</v>
+        <v>991</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="1">
-        <v>877</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>7</v>
+      <c r="A264">
+        <v>992</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="1">
-        <v>889</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>7</v>
+      <c r="A265">
+        <v>993</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="1">
-        <v>535</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>5</v>
+      <c r="A266">
+        <v>995</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>628</v>
+        <v>996</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>921</v>
+        <v>561</v>
       </c>
       <c r="B268" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>922</v>
+        <v>562</v>
       </c>
       <c r="B269" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>923</v>
+        <v>563</v>
       </c>
       <c r="B270" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>863</v>
+        <v>564</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>924</v>
+        <v>565</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>925</v>
+        <v>566</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>948</v>
+        <v>567</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>867</v>
+        <v>571</v>
       </c>
       <c r="B275" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>927</v>
+        <v>572</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>928</v>
+        <v>573</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>929</v>
+        <v>574</v>
       </c>
       <c r="B278" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>931</v>
+        <v>575</v>
       </c>
       <c r="B279" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>932</v>
+        <v>576</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>934</v>
+        <v>577</v>
       </c>
       <c r="B281" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>935</v>
+        <v>578</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>936</v>
+        <v>579</v>
       </c>
       <c r="B283" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>767</v>
+        <v>580</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>937</v>
+        <v>581</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>883</v>
+        <v>582</v>
       </c>
       <c r="B286" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>938</v>
+        <v>584</v>
       </c>
       <c r="B287" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>939</v>
+        <v>585</v>
       </c>
       <c r="B288" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>770</v>
+        <v>586</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>940</v>
+        <v>587</v>
       </c>
       <c r="B290" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>941</v>
+        <v>588</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>942</v>
+        <v>589</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>943</v>
+        <v>590</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>944</v>
+        <v>591</v>
       </c>
       <c r="B294" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>945</v>
+        <v>592</v>
       </c>
       <c r="B295" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>885</v>
+        <v>593</v>
       </c>
       <c r="B296" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>946</v>
+        <v>594</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>886</v>
+        <v>761</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>947</v>
+        <v>762</v>
       </c>
       <c r="B299" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="B300" t="s">
         <v>9</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>841</v>
+        <v>766</v>
       </c>
       <c r="B301" t="s">
         <v>9</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>842</v>
+        <v>768</v>
       </c>
       <c r="B302" t="s">
         <v>9</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="B303" t="s">
         <v>9</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>843</v>
+        <v>782</v>
       </c>
       <c r="B304" t="s">
         <v>9</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B305" t="s">
         <v>9</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B306" t="s">
         <v>9</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>561</v>
+        <v>785</v>
       </c>
       <c r="B307" t="s">
         <v>9</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>562</v>
+        <v>786</v>
       </c>
       <c r="B308" t="s">
         <v>9</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="B309" t="s">
         <v>9</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="B310" t="s">
         <v>9</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="B311" t="s">
         <v>9</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>563</v>
+        <v>794</v>
       </c>
       <c r="B312" t="s">
         <v>9</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>564</v>
+        <v>841</v>
       </c>
       <c r="B313" t="s">
         <v>9</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>565</v>
+        <v>842</v>
       </c>
       <c r="B314" t="s">
         <v>9</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>566</v>
+        <v>843</v>
       </c>
       <c r="B315" t="s">
         <v>9</v>
@@ -2960,261 +2960,265 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>567</v>
+        <v>770</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>768</v>
+        <v>863</v>
       </c>
       <c r="B318" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>571</v>
+        <v>883</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>573</v>
+        <v>885</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>574</v>
+        <v>886</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>572</v>
+        <v>921</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>575</v>
+        <v>922</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>576</v>
+        <v>923</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>577</v>
+        <v>924</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>782</v>
+        <v>925</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>578</v>
+        <v>927</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>579</v>
+        <v>928</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>783</v>
+        <v>929</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>580</v>
+        <v>931</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>784</v>
+        <v>932</v>
       </c>
       <c r="B332" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>581</v>
+        <v>934</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>582</v>
+        <v>935</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>584</v>
+        <v>936</v>
       </c>
       <c r="B335" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>585</v>
+        <v>937</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>586</v>
+        <v>938</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>587</v>
+        <v>939</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>785</v>
+        <v>940</v>
       </c>
       <c r="B339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>588</v>
+        <v>941</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>589</v>
+        <v>942</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>590</v>
+        <v>943</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>591</v>
+        <v>944</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>786</v>
+        <v>945</v>
       </c>
       <c r="B344" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>592</v>
+        <v>946</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>593</v>
+        <v>947</v>
       </c>
       <c r="B346" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>594</v>
+        <v>948</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B348">
+    <sortCondition ref="B2:B348"/>
+    <sortCondition ref="A2:A348"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3224,7 +3228,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{403A6E17-5CC1-4DD6-BA4F-AA5BDB0BF0AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD101A1-CF93-4B65-9572-C311D05B4296}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="urn:schemas-microsoft-com.SixFinancial.FinXL"/>
   </ds:schemaRefs>
